--- a/Location Details/Winthrop Ave, Indianapolis, IN 46220_conference.xlsx
+++ b/Location Details/Winthrop Ave, Indianapolis, IN 46220_conference.xlsx
@@ -478,7 +478,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -583,7 +583,7 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -625,7 +625,7 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -641,12 +641,12 @@
         <v>4.6</v>
       </c>
       <c r="E10" t="n">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -709,7 +709,7 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -730,7 +730,7 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -751,7 +751,7 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -835,7 +835,7 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -856,7 +856,7 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -877,7 +877,7 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -893,7 +893,7 @@
         <v>4.5</v>
       </c>
       <c r="E22" t="n">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="23">
@@ -940,7 +940,7 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -982,7 +982,7 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -1003,7 +1003,7 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -1108,7 +1108,7 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -1213,7 +1213,7 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -1234,7 +1234,7 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
@@ -1276,7 +1276,7 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -1297,7 +1297,7 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
@@ -1318,7 +1318,7 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
@@ -1339,7 +1339,7 @@
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
@@ -1423,7 +1423,7 @@
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
@@ -1439,12 +1439,12 @@
         <v>4.1</v>
       </c>
       <c r="E48" t="n">
-        <v>844</v>
+        <v>845</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
@@ -1507,7 +1507,7 @@
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
@@ -1528,7 +1528,7 @@
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
@@ -1591,7 +1591,7 @@
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
@@ -1633,7 +1633,7 @@
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
